--- a/teaching/traditional_assets/database/data/jordan/jordan_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/jordan/jordan_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.102</v>
+        <v>-0.197</v>
       </c>
       <c r="E2">
-        <v>-0.20515</v>
+        <v>-0.20365</v>
       </c>
       <c r="G2">
-        <v>0.2024311183144246</v>
+        <v>4.679127725856698</v>
       </c>
       <c r="H2">
-        <v>0.2024311183144246</v>
+        <v>4.679127725856698</v>
       </c>
       <c r="I2">
-        <v>0.03970826580226904</v>
+        <v>-1.714641744548286</v>
       </c>
       <c r="J2">
-        <v>0.03630732637013026</v>
+        <v>-1.714641744548286</v>
       </c>
       <c r="K2">
-        <v>-2.366</v>
+        <v>-3.89</v>
       </c>
       <c r="L2">
-        <v>-0.3834683954619124</v>
+        <v>-2.423676012461059</v>
       </c>
       <c r="M2">
-        <v>1.144</v>
+        <v>8.08</v>
       </c>
       <c r="N2">
-        <v>0.01209174505866187</v>
+        <v>0.1005100136832939</v>
       </c>
       <c r="O2">
-        <v>-0.4835164835164835</v>
+        <v>-2.077120822622108</v>
       </c>
       <c r="P2">
-        <v>1.144</v>
+        <v>4.69</v>
       </c>
       <c r="Q2">
-        <v>0.01209174505866187</v>
+        <v>0.05834058962557533</v>
       </c>
       <c r="R2">
-        <v>-0.4835164835164835</v>
+        <v>-1.205655526992288</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.4195544554455445</v>
       </c>
       <c r="U2">
-        <v>18.209</v>
+        <v>17.778</v>
       </c>
       <c r="V2">
-        <v>0.1924637987527746</v>
+        <v>0.2211469088195049</v>
       </c>
       <c r="W2">
-        <v>-0.00295159386068477</v>
+        <v>-0.01772570882132576</v>
       </c>
       <c r="X2">
-        <v>0.06220373980716193</v>
+        <v>0.04774911696999992</v>
       </c>
       <c r="Y2">
-        <v>-0.0651553336678467</v>
+        <v>-0.06547482579132569</v>
       </c>
       <c r="Z2">
-        <v>0.04161607985970592</v>
+        <v>0.01120238984316654</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06195231796940952</v>
+        <v>0.04779792817830612</v>
       </c>
       <c r="AC2">
-        <v>-0.06129155396898676</v>
+        <v>-0.04990541041463389</v>
       </c>
       <c r="AD2">
-        <v>6.593999999999999</v>
+        <v>4.773</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.593999999999999</v>
+        <v>4.773</v>
       </c>
       <c r="AG2">
-        <v>-11.615</v>
+        <v>-13.005</v>
       </c>
       <c r="AH2">
-        <v>0.06515552744950792</v>
+        <v>0.05604546575390721</v>
       </c>
       <c r="AI2">
-        <v>0.03839211896083934</v>
+        <v>0.03234112330010909</v>
       </c>
       <c r="AJ2">
-        <v>-0.1399481896499789</v>
+        <v>-0.1929954737701269</v>
       </c>
       <c r="AK2">
-        <v>-0.07564557621544174</v>
+        <v>-0.1001887446554447</v>
       </c>
       <c r="AL2">
-        <v>0.113</v>
+        <v>0.117</v>
       </c>
       <c r="AM2">
-        <v>0.113</v>
+        <v>0.117</v>
       </c>
       <c r="AN2">
-        <v>14.75167785234899</v>
+        <v>-1.860093530787218</v>
       </c>
       <c r="AO2">
-        <v>2.168141592920354</v>
+        <v>-23.52136752136752</v>
       </c>
       <c r="AP2">
-        <v>-25.98434004474273</v>
+        <v>5.068199532346064</v>
       </c>
       <c r="AQ2">
-        <v>2.168141592920354</v>
+        <v>-23.52136752136752</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jordanian Expatriates Investment Holding Company (PSC) (ASE:JEIH)</t>
+          <t>Al-Sanabel International for Islamic Investment (holding) (ASE:SANA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,79 +725,73 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.191</v>
-      </c>
-      <c r="E3">
-        <v>-0.392</v>
+        <v>-0.177</v>
       </c>
       <c r="G3">
-        <v>1.391129032258065</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.391129032258065</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1491935483870968</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1087869623655914</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.152</v>
+        <v>-0.247</v>
       </c>
       <c r="L3">
-        <v>0.1532258064516129</v>
+        <v>-6.175</v>
       </c>
       <c r="M3">
-        <v>1.14</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.1117647058823529</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>7.499999999999999</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.14</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.1117647058823529</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>7.499999999999999</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>6.34</v>
+        <v>0.016</v>
       </c>
       <c r="V3">
-        <v>0.6215686274509804</v>
+        <v>0.0009756097560975611</v>
       </c>
       <c r="W3">
-        <v>0.005448028673835125</v>
+        <v>-0.01193236714975845</v>
       </c>
       <c r="X3">
-        <v>0.06129155396898676</v>
+        <v>0.04717056405935217</v>
       </c>
       <c r="Y3">
-        <v>-0.05584352529515164</v>
+        <v>-0.05910293120911063</v>
       </c>
       <c r="Z3">
-        <v>0.04906033630069238</v>
+        <v>0.001933861922258751</v>
       </c>
       <c r="AA3">
-        <v>0.00533712495878668</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06129155396898676</v>
+        <v>0.04717056405935217</v>
       </c>
       <c r="AC3">
-        <v>-0.05595442901020008</v>
+        <v>-0.04717056405935217</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -809,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-6.34</v>
+        <v>-0.016</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -818,22 +812,16 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-1.642487046632125</v>
+        <v>-0.0009765625</v>
       </c>
       <c r="AK3">
-        <v>-0.2968164794007491</v>
+        <v>-0.0007661367554108408</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>-41.98675496688742</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jordan Investment Trust P.L.C (ASE:JOIT)</t>
+          <t>Al-Amal Financial Investments Company P.L.C (ASE:AMAL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,25 +841,28 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.134</v>
+        <v>-0.152</v>
+      </c>
+      <c r="E4">
+        <v>-0.473</v>
       </c>
       <c r="G4">
-        <v>-0.08136645962732919</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>-0.08136645962732919</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06024844720496894</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06024844720496894</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>-0.02</v>
+        <v>0.062</v>
       </c>
       <c r="L4">
-        <v>-0.0124223602484472</v>
+        <v>0.04492753623188406</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -880,7 +871,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -889,79 +880,67 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.25</v>
+        <v>2.77</v>
       </c>
       <c r="V4">
-        <v>0.05411255411255411</v>
+        <v>0.2051851851851852</v>
       </c>
       <c r="W4">
-        <v>-0.000488997555012225</v>
+        <v>0.004052287581699347</v>
       </c>
       <c r="X4">
-        <v>0.0625918367790417</v>
+        <v>0.04717056405935217</v>
       </c>
       <c r="Y4">
-        <v>-0.06308083433405393</v>
+        <v>-0.04311827647765283</v>
       </c>
       <c r="Z4">
-        <v>0.03981994459833796</v>
+        <v>0.09206137424949966</v>
       </c>
       <c r="AA4">
-        <v>0.002399089829837753</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06240145288235505</v>
+        <v>0.04717056405935217</v>
       </c>
       <c r="AC4">
-        <v>-0.0600023630525173</v>
+        <v>-0.04717056405935217</v>
       </c>
       <c r="AD4">
-        <v>0.892</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.892</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-0.358</v>
+        <v>-2.77</v>
       </c>
       <c r="AH4">
-        <v>0.03717905968656219</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.02041563672983613</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.0157417993140445</v>
+        <v>-0.2581547064305685</v>
       </c>
       <c r="AK4">
-        <v>-0.008435040761509825</v>
+        <v>-0.2193190815518606</v>
       </c>
       <c r="AL4">
-        <v>0.113</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.113</v>
-      </c>
-      <c r="AN4">
-        <v>3.013513513513514</v>
-      </c>
-      <c r="AO4">
-        <v>0.8584070796460177</v>
-      </c>
-      <c r="AP4">
-        <v>-1.209459459459459</v>
-      </c>
-      <c r="AQ4">
-        <v>0.8584070796460177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +951,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Al-Sanabel International for Islamic Investment (holding) (ASE:SANA)</t>
+          <t>National Portfolio Securities Group (ASE:MHFZ)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -981,7 +960,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.523</v>
+        <v>-0.258</v>
+      </c>
+      <c r="E5">
+        <v>0.06570000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -996,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>-0.847</v>
+        <v>0.525</v>
       </c>
       <c r="L5">
-        <v>-27.32258064516129</v>
+        <v>2.364864864864865</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>3.39</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>1.260223048327138</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>6.457142857142857</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1017,61 +999,64 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>3.39</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.013</v>
+        <v>0.8</v>
       </c>
       <c r="V5">
-        <v>0.0008227848101265822</v>
+        <v>0.2973977695167286</v>
       </c>
       <c r="W5">
-        <v>-0.03798206278026905</v>
+        <v>0.04338842975206612</v>
       </c>
       <c r="X5">
-        <v>0.06129155396898676</v>
+        <v>0.04759854366805266</v>
       </c>
       <c r="Y5">
-        <v>-0.09927361674925582</v>
+        <v>-0.004210113915986545</v>
       </c>
       <c r="Z5">
-        <v>0.001391195081452228</v>
+        <v>0.02024254581927601</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.06129155396898676</v>
+        <v>0.04771293068685589</v>
       </c>
       <c r="AC5">
-        <v>-0.06129155396898676</v>
+        <v>-0.04771293068685589</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="AG5">
-        <v>-0.013</v>
+        <v>-0.762</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.01392961876832845</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.00411790203727785</v>
       </c>
       <c r="AJ5">
-        <v>-0.0008234623424336479</v>
+        <v>-0.3952282157676349</v>
       </c>
       <c r="AK5">
-        <v>-0.0006223967060851248</v>
+        <v>-0.09041290934978644</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1088,7 +1073,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Al-Amin Investment Com. (ASE:AAFI)</t>
+          <t>Saba'ek Invest Company PLC (ASE:SABK)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1096,23 +1081,26 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D6">
+        <v>-0.07919999999999999</v>
+      </c>
       <c r="G6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-0.696</v>
+        <v>-0.131</v>
       </c>
       <c r="L6">
-        <v>4.64</v>
+        <v>-0.401840490797546</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1136,55 +1124,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>2.08</v>
+        <v>3.57</v>
       </c>
       <c r="V6">
-        <v>0.1464788732394366</v>
+        <v>0.7406639004149377</v>
       </c>
       <c r="W6">
-        <v>-0.0380327868852459</v>
+        <v>-0.01530373831775701</v>
       </c>
       <c r="X6">
-        <v>0.06129155396898676</v>
+        <v>0.04789969027194718</v>
       </c>
       <c r="Y6">
-        <v>-0.09932434085423267</v>
+        <v>-0.06320342858970419</v>
       </c>
       <c r="Z6">
-        <v>-0.01063075832742736</v>
+        <v>0.05591766723842196</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.06129155396898676</v>
+        <v>0.04788292566975637</v>
       </c>
       <c r="AC6">
-        <v>-0.06129155396898676</v>
+        <v>-0.04788292566975637</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="AG6">
-        <v>-2.08</v>
+        <v>-3.454</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.02350081037277148</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.01358950328022493</v>
       </c>
       <c r="AJ6">
-        <v>-0.1716171617161716</v>
+        <v>-2.528550512445094</v>
       </c>
       <c r="AK6">
-        <v>-0.134020618556701</v>
+        <v>-0.6955296012887635</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1201,7 +1189,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Saba'ek Invest Company PLC (ASE:SABK)</t>
+          <t>United Financial Investments PLC (ASE:UCFI)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1210,7 +1198,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.102</v>
+        <v>-0.272</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1225,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>-0.025</v>
+        <v>-0.573</v>
       </c>
       <c r="L7">
-        <v>-0.05285412262156449</v>
+        <v>-0.9486754966887416</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1252,55 +1240,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>3.09</v>
+        <v>2.05</v>
       </c>
       <c r="V7">
-        <v>0.5478723404255319</v>
+        <v>0.3078078078078078</v>
       </c>
       <c r="W7">
-        <v>-0.00295159386068477</v>
+        <v>-0.04547619047619048</v>
       </c>
       <c r="X7">
-        <v>0.06129155396898676</v>
+        <v>0.05138750254379895</v>
       </c>
       <c r="Y7">
-        <v>-0.06424314782967154</v>
+        <v>-0.09686369301998943</v>
       </c>
       <c r="Z7">
-        <v>0.1143617021276595</v>
+        <v>0.06317991631799164</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.06129155396898676</v>
+        <v>0.05192789515951142</v>
       </c>
       <c r="AC7">
-        <v>-0.06129155396898676</v>
+        <v>-0.05192789515951142</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.927</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.927</v>
       </c>
       <c r="AG7">
-        <v>-3.09</v>
+        <v>-1.123</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.1221826809015421</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.07171037363657462</v>
       </c>
       <c r="AJ7">
-        <v>-1.211764705882353</v>
+        <v>-0.2028174101499006</v>
       </c>
       <c r="AK7">
-        <v>-0.5754189944134077</v>
+        <v>-0.1032453801599705</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1317,7 +1305,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>National Portfolio Securities Company (ASE:MHFZ)</t>
+          <t>International brokerage and financial markets Public Shareholding Company (ASE:IBFM)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1325,26 +1313,23 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D8">
-        <v>0.0202</v>
-      </c>
       <c r="G8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K8">
-        <v>-0.39</v>
+        <v>-0.581</v>
       </c>
       <c r="L8">
-        <v>-2.635135135135136</v>
+        <v>0.9764705882352941</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1368,55 +1353,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.15</v>
+        <v>0.392</v>
       </c>
       <c r="V8">
-        <v>0.1657060518731988</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="W8">
-        <v>-0.0312</v>
+        <v>-0.05379629629629629</v>
       </c>
       <c r="X8">
-        <v>0.06220373980716193</v>
+        <v>0.06465366656494784</v>
       </c>
       <c r="Y8">
-        <v>-0.09340373980716193</v>
+        <v>-0.1184499628612441</v>
       </c>
       <c r="Z8">
-        <v>0.0132509624854508</v>
+        <v>-0.04245754245754245</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.06195231796940952</v>
+        <v>0.06141778446797912</v>
       </c>
       <c r="AC8">
-        <v>-0.06195231796940952</v>
+        <v>-0.06141778446797912</v>
       </c>
       <c r="AD8">
-        <v>0.188</v>
+        <v>3.07</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.188</v>
+        <v>3.07</v>
       </c>
       <c r="AG8">
-        <v>-0.962</v>
+        <v>2.678</v>
       </c>
       <c r="AH8">
-        <v>0.02637485970819304</v>
+        <v>0.3659117997616209</v>
       </c>
       <c r="AI8">
-        <v>0.01529947916666667</v>
+        <v>0.2313489073097212</v>
       </c>
       <c r="AJ8">
-        <v>-0.1609233857477417</v>
+        <v>0.3348337084271067</v>
       </c>
       <c r="AK8">
-        <v>-0.08637098222302028</v>
+        <v>0.2079515452710048</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1433,7 +1418,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>United Financial Investments PLC (ASE:UCFI)</t>
+          <t>Jordan Investment Trust P.L.C (ASE:JOIT)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1442,46 +1427,43 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.09080000000000001</v>
-      </c>
-      <c r="E9">
-        <v>-0.0183</v>
+        <v>-0.217</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>10.3110599078341</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.3110599078341</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>-1.108294930875576</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-1.108294930875576</v>
       </c>
       <c r="K9">
-        <v>0.254</v>
+        <v>-0.955</v>
       </c>
       <c r="L9">
-        <v>0.10995670995671</v>
+        <v>-1.100230414746544</v>
       </c>
       <c r="M9">
-        <v>0.004</v>
+        <v>4.69</v>
       </c>
       <c r="N9">
-        <v>0.0007092198581560284</v>
+        <v>0.2254807692307692</v>
       </c>
       <c r="O9">
-        <v>0.01574803149606299</v>
+        <v>-4.910994764397906</v>
       </c>
       <c r="P9">
-        <v>0.004</v>
+        <v>4.69</v>
       </c>
       <c r="Q9">
-        <v>0.0007092198581560284</v>
+        <v>0.2254807692307692</v>
       </c>
       <c r="R9">
-        <v>0.01574803149606299</v>
+        <v>-4.910994764397906</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1490,61 +1472,73 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>3.35</v>
+        <v>4.51</v>
       </c>
       <c r="V9">
-        <v>0.5939716312056738</v>
+        <v>0.2168269230769231</v>
       </c>
       <c r="W9">
-        <v>0.02081967213114754</v>
+        <v>-0.02014767932489452</v>
       </c>
       <c r="X9">
-        <v>0.062628931002895</v>
+        <v>0.04807654447646437</v>
       </c>
       <c r="Y9">
-        <v>-0.04180925887174746</v>
+        <v>-0.06822422380135888</v>
       </c>
       <c r="Z9">
-        <v>0.2950191570881227</v>
+        <v>0.01831687347007681</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>-0.02030049801637545</v>
       </c>
       <c r="AB9">
-        <v>0.06254803188153195</v>
+        <v>0.0483010992831191</v>
       </c>
       <c r="AC9">
-        <v>-0.06254803188153195</v>
+        <v>-0.06860159729949455</v>
       </c>
       <c r="AD9">
-        <v>0.224</v>
+        <v>0.622</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.224</v>
+        <v>0.622</v>
       </c>
       <c r="AG9">
-        <v>-3.126</v>
+        <v>-3.888</v>
       </c>
       <c r="AH9">
-        <v>0.03819918144611187</v>
+        <v>0.02903557090841191</v>
       </c>
       <c r="AI9">
-        <v>0.01774397972116603</v>
+        <v>0.01390814364294978</v>
       </c>
       <c r="AJ9">
-        <v>-1.243436754176611</v>
+        <v>-0.2298959318826869</v>
       </c>
       <c r="AK9">
-        <v>-0.337071382359284</v>
+        <v>-0.09668755595344672</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.117</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.117</v>
+      </c>
+      <c r="AN9">
+        <v>-0.8015463917525772</v>
+      </c>
+      <c r="AO9">
+        <v>-8.222222222222221</v>
+      </c>
+      <c r="AP9">
+        <v>5.010309278350515</v>
+      </c>
+      <c r="AQ9">
+        <v>-8.222222222222221</v>
       </c>
     </row>
     <row r="10">
@@ -1555,7 +1549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Al Bilad Securities and Investment Company (ASE:BLAD)</t>
+          <t>Jordanian Expatriates Investment Holding Company (PSC) (ASE:JEIH)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1563,26 +1557,23 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D10">
-        <v>0.08019999999999999</v>
-      </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.161290322580645</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.161290322580645</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.443548387096774</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.443548387096774</v>
       </c>
       <c r="K10">
-        <v>0.336</v>
+        <v>-1.99</v>
       </c>
       <c r="L10">
-        <v>0.2645669291338583</v>
+        <v>1.604838709677419</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1591,7 +1582,7 @@
         <v>-0</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1600,61 +1591,61 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.213</v>
+        <v>3.67</v>
       </c>
       <c r="V10">
-        <v>0.01918918918918919</v>
+        <v>0.3598039215686274</v>
       </c>
       <c r="W10">
-        <v>0.028</v>
+        <v>-0.08361344537815125</v>
       </c>
       <c r="X10">
-        <v>0.06650938984838549</v>
+        <v>0.04717056405935217</v>
       </c>
       <c r="Y10">
-        <v>-0.03850938984838549</v>
+        <v>-0.1307840094375034</v>
       </c>
       <c r="Z10">
-        <v>0.09505988023952096</v>
+        <v>-0.0625</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>-0.09022177419354839</v>
       </c>
       <c r="AB10">
-        <v>0.06570462810822364</v>
+        <v>0.04717056405935217</v>
       </c>
       <c r="AC10">
-        <v>-0.06570462810822364</v>
+        <v>-0.1373923382529006</v>
       </c>
       <c r="AD10">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>1.507</v>
+        <v>-3.67</v>
       </c>
       <c r="AH10">
-        <v>0.1341653666146646</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.1253644314868805</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.1195367652891251</v>
+        <v>-0.5620214395099541</v>
       </c>
       <c r="AK10">
-        <v>0.1115717775968016</v>
+        <v>-0.1938721605916535</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1662,118 +1653,11 @@
       <c r="AM10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>International brokerage and financial markets Public Shareholding Company (ASE:IBFM)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="G11">
-        <v>-0</v>
-      </c>
-      <c r="H11">
-        <v>-0</v>
-      </c>
-      <c r="I11">
-        <v>-0</v>
-      </c>
-      <c r="J11">
-        <v>-0</v>
-      </c>
-      <c r="K11">
-        <v>-1.13</v>
-      </c>
-      <c r="L11">
-        <v>2.198443579766537</v>
-      </c>
-      <c r="M11">
-        <v>-0</v>
-      </c>
-      <c r="N11">
-        <v>-0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>-0</v>
-      </c>
-      <c r="Q11">
-        <v>-0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0.723</v>
-      </c>
-      <c r="V11">
-        <v>0.3633165829145729</v>
-      </c>
-      <c r="W11">
-        <v>-0.0911290322580645</v>
-      </c>
-      <c r="X11">
-        <v>0.121700336951613</v>
-      </c>
-      <c r="Y11">
-        <v>-0.2128293692096775</v>
-      </c>
-      <c r="Z11">
-        <v>-0.03491847826086956</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0.08241156916893126</v>
-      </c>
-      <c r="AC11">
-        <v>-0.08241156916893126</v>
-      </c>
-      <c r="AD11">
-        <v>3.57</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>3.57</v>
-      </c>
-      <c r="AG11">
-        <v>2.847</v>
-      </c>
-      <c r="AH11">
-        <v>0.6420863309352518</v>
-      </c>
-      <c r="AI11">
-        <v>0.2417061611374408</v>
-      </c>
-      <c r="AJ11">
-        <v>0.5885879677486046</v>
-      </c>
-      <c r="AK11">
-        <v>0.2026767281270022</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
+      <c r="AN10">
+        <v>-0</v>
+      </c>
+      <c r="AP10">
+        <v>2.050279329608939</v>
       </c>
     </row>
   </sheetData>
